--- a/Written Tasks/GotoGro WBS.xlsx
+++ b/Written Tasks/GotoGro WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Managing Software\msp-gotogro\Written Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B5DCF-121C-4E7C-95E1-2E32809A314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF10284C-4207-40FB-9523-00C9B508C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8928" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
   <si>
     <t>Dylan</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Modify an item Record</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -434,33 +437,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAF8A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -792,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,7 +1502,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>75</v>
@@ -1597,7 +1573,7 @@
   </sheetData>
   <autoFilter ref="A1:I44" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
   <conditionalFormatting sqref="B2:C5 F3:F5 B12:B13 F7:F10 B7:B9 F12:F13 F15:F17 B15:B17 B19:B24 F19:F24 B26:B30 F26:F30">
-    <cfRule type="cellIs" dxfId="5" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Written Tasks/GotoGro WBS.xlsx
+++ b/Written Tasks/GotoGro WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Managing Software\msp-gotogro\Written Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF10284C-4207-40FB-9523-00C9B508C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F6CBE-E062-421F-A465-67F57721AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8928" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -768,25 +768,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="13.44140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -815,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -840,9 +840,11 @@
       <c r="H2" s="3">
         <v>0.3</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -867,9 +869,11 @@
       <c r="H3" s="3">
         <v>0.3</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -894,9 +898,11 @@
       <c r="H4" s="3">
         <v>0.3</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -921,9 +927,11 @@
       <c r="H5" s="3">
         <v>0.3</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -934,7 +942,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -959,9 +967,11 @@
       <c r="H7" s="6">
         <v>0.3</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I7" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -986,9 +996,11 @@
       <c r="H8" s="3">
         <v>0.3</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1013,9 +1025,11 @@
       <c r="H9" s="3">
         <v>0.3</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1040,9 +1054,11 @@
       <c r="H10" s="3">
         <v>0.3</v>
       </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1053,7 +1069,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1078,9 +1094,11 @@
       <c r="H12" s="3">
         <v>0.5</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1105,9 +1123,11 @@
       <c r="H13" s="3">
         <v>0.3</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1118,7 +1138,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1143,9 +1163,11 @@
       <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1170,9 +1192,11 @@
       <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1197,9 +1221,11 @@
       <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1210,7 +1236,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1235,9 +1261,11 @@
       <c r="H19" s="3">
         <v>4</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1262,9 +1290,11 @@
       <c r="H20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1289,9 +1319,11 @@
       <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1316,9 +1348,11 @@
       <c r="H22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1343,9 +1377,11 @@
       <c r="H23" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1370,9 +1406,11 @@
       <c r="H24" s="3">
         <v>4</v>
       </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1383,7 +1421,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1408,9 +1446,11 @@
       <c r="H26" s="3">
         <v>4</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -1435,9 +1475,11 @@
       <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -1462,9 +1504,11 @@
       <c r="H28" s="3">
         <v>2</v>
       </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -1489,9 +1533,11 @@
       <c r="H29" s="3">
         <v>2</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -1516,9 +1562,11 @@
       <c r="H30" s="3">
         <v>4</v>
       </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G31" s="10" t="s">
         <v>84</v>
       </c>
@@ -1526,14 +1574,17 @@
         <f>SUM(H2:H30)</f>
         <v>43.2</v>
       </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I31" s="3">
+        <f>SUM(I2:I30)</f>
+        <v>40.399999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1557,7 +1608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G44" s="2" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1638,7 @@
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G30" xr:uid="{1CAB5872-1FCF-481F-8C96-D1E92DA82C71}">
       <formula1>$G$39:$G$44</formula1>
     </dataValidation>

--- a/Written Tasks/GotoGro WBS.xlsx
+++ b/Written Tasks/GotoGro WBS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Managing Software\msp-gotogro\Written Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F6CBE-E062-421F-A465-67F57721AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC11CE9-E1B6-4B00-BD18-75696987E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sprint 1'!$A$1:$I$44</definedName>
@@ -769,7 +770,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,4 +1650,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2997EC8E-0F95-42CB-8CEE-4E882F032190}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Written Tasks/GotoGro WBS.xlsx
+++ b/Written Tasks/GotoGro WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Managing Software\msp-gotogro\Written Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC11CE9-E1B6-4B00-BD18-75696987E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23C1A2-748D-4891-9893-C1FDE3464763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE9BC19B-72E2-48A1-B107-A8840272799F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
   <si>
     <t>Dylan</t>
   </si>
@@ -298,6 +298,45 @@
   </si>
   <si>
     <t>Modify an item Record</t>
+  </si>
+  <si>
+    <t>PDF Reports</t>
+  </si>
+  <si>
+    <t>SQL Join Statement</t>
+  </si>
+  <si>
+    <t>SQL Select Item Statement</t>
+  </si>
+  <si>
+    <t>SQL Select Member Statement</t>
+  </si>
+  <si>
+    <t>Implement UI</t>
+  </si>
+  <si>
+    <t>Physically place the button on the screen as well as two date boundary fields</t>
+  </si>
+  <si>
+    <t>Statement to select a count of all items sold and tally their cost basis into a chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement to select a specific member and present their information </t>
+  </si>
+  <si>
+    <t>Statement to join the sales table with the member table to capture what a given member bought inbetween two time brackets</t>
+  </si>
+  <si>
+    <t>Trigger Code for Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Writing the python script which will trigger the SQL statements are return the results when the button is clicked</t>
+  </si>
+  <si>
+    <t>Processing Code for Output</t>
+  </si>
+  <si>
+    <t>Writing the code that will format the return values of the SQL statement, including formatiing into charts in necessary</t>
   </si>
 </sst>
 </file>
@@ -384,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -416,11 +455,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -769,25 +830,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="28.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="13.44140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -816,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -845,7 +906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -874,7 +935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -903,7 +964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -932,7 +993,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -943,7 +1004,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -972,7 +1033,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1001,7 +1062,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1030,7 +1091,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1059,7 +1120,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1070,7 +1131,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1099,7 +1160,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1128,7 +1189,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1139,7 +1200,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1168,7 +1229,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1197,7 +1258,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1226,7 +1287,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1237,7 +1298,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1266,7 +1327,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1295,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1324,7 +1385,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1353,7 +1414,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1382,7 +1443,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1411,7 +1472,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1422,7 +1483,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -1451,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -1480,7 +1541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -1509,7 +1570,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -1538,7 +1599,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -1567,7 +1628,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G31" s="10" t="s">
         <v>84</v>
       </c>
@@ -1580,12 +1641,12 @@
         <v>40.399999999999991</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1601,7 +1662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G44" s="2" t="s">
         <v>15</v>
       </c>
@@ -1625,17 +1686,17 @@
   </sheetData>
   <autoFilter ref="A1:I44" xr:uid="{B4F2CD5D-B7CE-4B02-AEAB-57CB269396F3}"/>
   <conditionalFormatting sqref="B2:C5 F3:F5 B12:B13 F7:F10 B7:B9 F12:F13 F15:F17 B15:B17 B19:B24 F19:F24 B26:B30 F26:F30">
-    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A5 A7:A10 A12:A13 A15:A17 A19:A24 A26:A30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1654,12 +1715,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2997EC8E-0F95-42CB-8CEE-4E882F032190}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>